--- a/yubin.xlsx
+++ b/yubin.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26322"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CF30420-9773-47CA-A3FD-497EA7F44742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/14c517841b306d82/ドキュメント/GitHub/OfficeWorkManual/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{5CF30420-9773-47CA-A3FD-497EA7F44742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CBE5F93-5C89-4B88-8146-303C785A2BEF}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>定型郵便物</t>
   </si>
@@ -43,18 +48,35 @@
   </si>
   <si>
     <t>94円</t>
+  </si>
+  <si>
+    <t>定形外郵便物</t>
+    <rPh sb="0" eb="3">
+      <t>テイケイガイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ユウビンブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -98,7 +120,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -394,20 +416,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -415,7 +437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -423,7 +445,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>